--- a/data/Mediciones/sala1/sala1_rew.xlsx
+++ b/data/Mediciones/sala1/sala1_rew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90727fd8e92db46b/Desktop/Tesis/blind-estimation-of-acoustics-parameters/data/Mediciones/sala1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91AFC652-4EA3-4F61-A728-0C93FDD1DCD6}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D2F04E46CFB4ACB3E202A7554FB6E683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09500ECA-D498-45CB-85FC-58195B7EB9A4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,15 +437,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -477,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -491,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -519,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -533,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -547,7 +543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -561,7 +557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -575,7 +571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -589,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -603,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -617,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -631,7 +627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -645,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
